--- a/output/LOWVOL/rebalance/rebalance_20240329.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240329.xlsx
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02170111700918501</v>
+        <v>0.0217011074007948</v>
       </c>
       <c r="C2" t="n">
         <v>0.02591123455294325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004210117543758239</v>
+        <v>0.004210127152148455</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01772236088573076</v>
+        <v>0.017722371103235</v>
       </c>
       <c r="C3" t="n">
         <v>0.02564262011846869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007920259232737929</v>
+        <v>0.00792024901523369</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02076625405140306</v>
+        <v>0.0207662474670444</v>
       </c>
       <c r="C4" t="n">
         <v>0.02549649709229645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004730243040893384</v>
+        <v>0.004730249625252047</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02365385048760809</v>
+        <v>0.02365385974764685</v>
       </c>
       <c r="C5" t="n">
         <v>0.02516683247050226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001512981982894176</v>
+        <v>0.001512972722855412</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02232651752779281</v>
+        <v>0.02232650855032016</v>
       </c>
       <c r="C6" t="n">
         <v>0.02507699008366476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002750472555871949</v>
+        <v>0.002750481533344607</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02307208458905046</v>
+        <v>0.02307209467283588</v>
       </c>
       <c r="C7" t="n">
         <v>0.02485359568370155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001781511094651089</v>
+        <v>0.001781501010865667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0223026183709472</v>
+        <v>0.02230263616696858</v>
       </c>
       <c r="C8" t="n">
         <v>0.02483462782990704</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002532009458959841</v>
+        <v>0.002531991662938469</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02978409032565709</v>
+        <v>0.02978406070941855</v>
       </c>
       <c r="C9" t="n">
         <v>0.02454648859592749</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005237601729729605</v>
+        <v>-0.005237572113491056</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01968877500501286</v>
+        <v>0.0196887758410352</v>
       </c>
       <c r="C10" t="n">
         <v>0.02348624849986388</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003797473494851013</v>
+        <v>0.003797472658828675</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02244988116980053</v>
+        <v>0.02244987255263032</v>
       </c>
       <c r="C11" t="n">
         <v>0.02303128692971006</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005814057599095347</v>
+        <v>0.0005814143770797482</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01769567141148459</v>
+        <v>0.01769566658969092</v>
       </c>
       <c r="C12" t="n">
         <v>0.02256521098889481</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004869539577410223</v>
+        <v>0.004869544399203885</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03083688547265124</v>
+        <v>0.03083687169666126</v>
       </c>
       <c r="C13" t="n">
         <v>0.02200772118922792</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008829164283423313</v>
+        <v>-0.008829150507433339</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01673480885831696</v>
+        <v>0.01673480363267017</v>
       </c>
       <c r="C14" t="n">
         <v>0.02187029178938644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005135482931069482</v>
+        <v>0.005135488156716269</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.022328234791087</v>
+        <v>0.02232825992431575</v>
       </c>
       <c r="C15" t="n">
         <v>0.02117333697224531</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001154897818841691</v>
+        <v>-0.001154922952070439</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02512091253060058</v>
+        <v>0.02512096084713292</v>
       </c>
       <c r="C16" t="n">
         <v>0.02109389200768149</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.004027020522919096</v>
+        <v>-0.00402706883945143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02048647428377888</v>
+        <v>0.02048651361281241</v>
       </c>
       <c r="C17" t="n">
         <v>0.02046166871807441</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.480556570447559e-05</v>
+        <v>-2.484489473799853e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0205728159669529</v>
+        <v>0.02057282515541086</v>
       </c>
       <c r="C18" t="n">
         <v>0.0202065749121747</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0003662410547781991</v>
+        <v>-0.0003662502432361589</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01851777937700404</v>
+        <v>0.01851779759522604</v>
       </c>
       <c r="C19" t="n">
         <v>0.01993442102545657</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001416641648452534</v>
+        <v>0.001416623430230534</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01975023074918739</v>
+        <v>0.01975021015619338</v>
       </c>
       <c r="C20" t="n">
         <v>0.01990505811355953</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001548273643721364</v>
+        <v>0.0001548479573661478</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01740794685666609</v>
+        <v>0.01740793083863845</v>
       </c>
       <c r="C22" t="n">
         <v>0.01980031268585608</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002392365829189998</v>
+        <v>0.002392381847217635</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0181557742629529</v>
+        <v>0.01815576828261277</v>
       </c>
       <c r="C23" t="n">
         <v>0.0197103613307537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001554587067800796</v>
+        <v>0.001554593048140925</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01983745425215399</v>
+        <v>0.01983747521820267</v>
       </c>
       <c r="C25" t="n">
         <v>0.0194897794329492</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0003476748192047935</v>
+        <v>-0.0003476957852534754</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0179855960946936</v>
+        <v>0.01798560153561558</v>
       </c>
       <c r="C27" t="n">
         <v>0.01921840557318726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001232809478493652</v>
+        <v>0.001232804037571675</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01786389862451636</v>
+        <v>0.01786390398848844</v>
       </c>
       <c r="C29" t="n">
         <v>0.01903155946513137</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001167660840615009</v>
+        <v>0.00116765547664293</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01718871612995238</v>
+        <v>0.01718872966309128</v>
       </c>
       <c r="C30" t="n">
         <v>0.01897350303972862</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001784786909776237</v>
+        <v>0.001784773376637339</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01956274995547927</v>
+        <v>0.01956275569698162</v>
       </c>
       <c r="C31" t="n">
         <v>0.01891773222662478</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0006450177288544814</v>
+        <v>-0.0006450234703568314</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01721258627534036</v>
+        <v>0.01721259641648108</v>
       </c>
       <c r="C32" t="n">
         <v>0.01886567662347498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001653090348134621</v>
+        <v>0.001653080206993902</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01756927101289576</v>
+        <v>0.017569274427049</v>
       </c>
       <c r="C35" t="n">
         <v>0.01815354268551151</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0005842716726157555</v>
+        <v>0.0005842682584625142</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01938161908115538</v>
+        <v>0.01938156856952759</v>
       </c>
       <c r="C36" t="n">
         <v>0.01799193655707208</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001389682524083301</v>
+        <v>-0.001389632012455511</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01761075817070115</v>
+        <v>0.01761073810560077</v>
       </c>
       <c r="C40" t="n">
         <v>0.01749354386356879</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0001172143071323586</v>
+        <v>-0.0001171942420319719</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7083,13 +7083,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01807448359141587</v>
+        <v>0.01807448992651538</v>
       </c>
       <c r="C41" t="n">
         <v>0.01731852030888528</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.000755963282530598</v>
+        <v>-0.000755969617630102</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01748778157850437</v>
+        <v>0.01748779127996304</v>
       </c>
       <c r="C42" t="n">
         <v>0.01727487088451748</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0002129106939868924</v>
+        <v>-0.000212920395445567</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01908101275178234</v>
+        <v>0.01908101356199794</v>
       </c>
       <c r="C43" t="n">
         <v>0.01726114918780488</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.00181986356397746</v>
+        <v>-0.001819864374193063</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7251,13 +7251,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0187865296350311</v>
+        <v>0.01878650844796762</v>
       </c>
       <c r="C49" t="n">
         <v>0.0166614789297515</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002125050705279598</v>
+        <v>-0.002125029518216123</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02099149706372745</v>
+        <v>0.02099148913238223</v>
       </c>
       <c r="C50" t="n">
         <v>0.01665641139858615</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.004335085665141302</v>
+        <v>-0.004335077733796086</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01179742376120834</v>
+        <v>0.0117974557889037</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01179742376120834</v>
+        <v>-0.0117974557889037</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01474227189068191</v>
+        <v>0.01474229378199243</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01474227189068191</v>
+        <v>-0.01474229378199243</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01859602952529952</v>
+        <v>0.01859598890245817</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01859602952529952</v>
+        <v>-0.01859598890245817</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0236880254928646</v>
+        <v>0.02368804522394918</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0236880254928646</v>
+        <v>-0.02368804522394918</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01768425801270476</v>
+        <v>0.01768425144688783</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01768425801270476</v>
+        <v>-0.01768425144688783</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01554646962338541</v>
+        <v>0.01554651332807017</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01554646962338541</v>
+        <v>-0.01554651332807017</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01965983661176415</v>
+        <v>0.01965981443980296</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01965983661176415</v>
+        <v>-0.01965981443980296</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01760658100249668</v>
+        <v>0.01760659100826772</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01760658100249668</v>
+        <v>-0.01760659100826772</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02780037520069145</v>
+        <v>0.02780027878169743</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02780037520069145</v>
+        <v>-0.02780027878169743</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02582674369935658</v>
+        <v>0.02582670041015156</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02582674369935658</v>
+        <v>-0.02582670041015156</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01445727011020735</v>
+        <v>0.014457273955713</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01445727011020735</v>
+        <v>-0.014457273955713</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02195727990233619</v>
+        <v>0.02195729029649735</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02195727990233619</v>
+        <v>-0.02195729029649735</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0141616948769697</v>
+        <v>0.01416168068725485</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0141616948769697</v>
+        <v>-0.01416168068725485</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02985624039690255</v>
+        <v>0.02985626357313125</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02985624039690255</v>
+        <v>-0.02985626357313125</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01691046169291095</v>
+        <v>0.01691047986206363</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01691046169291095</v>
+        <v>-0.01691047986206363</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>

--- a/output/LOWVOL/rebalance/rebalance_20240329.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240329.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>32.17%</t>
+          <t>32.16%</t>
         </is>
       </c>
     </row>
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0217011074007948</v>
+        <v>0.02170368475313246</v>
       </c>
       <c r="C2" t="n">
         <v>0.02591123455294325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004210127152148455</v>
+        <v>0.004207549799810788</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.017722371103235</v>
+        <v>0.01772445785082614</v>
       </c>
       <c r="C3" t="n">
         <v>0.02564262011846869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00792024901523369</v>
+        <v>0.007918162267642546</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0207662474670444</v>
+        <v>0.02076871117944534</v>
       </c>
       <c r="C4" t="n">
         <v>0.02549649709229645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004730249625252047</v>
+        <v>0.004727785912851109</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02365385974764685</v>
+        <v>0.02365664928508003</v>
       </c>
       <c r="C5" t="n">
         <v>0.02516683247050226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001512972722855412</v>
+        <v>0.001510183185422235</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02232650855032016</v>
+        <v>0.02232915927108306</v>
       </c>
       <c r="C6" t="n">
         <v>0.02507699008366476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002750481533344607</v>
+        <v>0.002747830812581703</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02307209467283588</v>
+        <v>0.02307481455016415</v>
       </c>
       <c r="C7" t="n">
         <v>0.02485359568370155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001781501010865667</v>
+        <v>0.001778781133537397</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02230263616696858</v>
+        <v>0.02230525728641456</v>
       </c>
       <c r="C8" t="n">
         <v>0.02483462782990704</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002531991662938469</v>
+        <v>0.002529370543492483</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02978406070941855</v>
+        <v>0.02978761447225434</v>
       </c>
       <c r="C9" t="n">
         <v>0.02454648859592749</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005237572113491056</v>
+        <v>-0.005241125876326851</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0196887758410352</v>
+        <v>0.01969110464236888</v>
       </c>
       <c r="C10" t="n">
         <v>0.02348624849986388</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003797472658828675</v>
+        <v>0.003795143857494996</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02244987255263032</v>
+        <v>0.02245253750986221</v>
       </c>
       <c r="C11" t="n">
         <v>0.02303128692971006</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005814143770797482</v>
+        <v>0.0005787494198478509</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01769566658969092</v>
+        <v>0.01769776521859801</v>
       </c>
       <c r="C12" t="n">
         <v>0.02256521098889481</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004869544399203885</v>
+        <v>0.0048674457702968</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03083687169666126</v>
+        <v>0.03084053418925864</v>
       </c>
       <c r="C13" t="n">
         <v>0.02200772118922792</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008829150507433339</v>
+        <v>-0.00883281300003072</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01673480363267017</v>
+        <v>0.01673678897317185</v>
       </c>
       <c r="C14" t="n">
         <v>0.02187029178938644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005135488156716269</v>
+        <v>0.005133502816214584</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02232825992431575</v>
+        <v>0.02233087673756918</v>
       </c>
       <c r="C15" t="n">
         <v>0.02117333697224531</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001154922952070439</v>
+        <v>-0.001157539765323876</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02512096084713292</v>
+        <v>0.02512388491543579</v>
       </c>
       <c r="C16" t="n">
         <v>0.02109389200768149</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00402706883945143</v>
+        <v>-0.004029992907754298</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02048651361281241</v>
+        <v>0.02048889830740516</v>
       </c>
       <c r="C17" t="n">
         <v>0.02046166871807441</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.484489473799853e-05</v>
+        <v>-2.722958933075101e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02057282515541086</v>
+        <v>0.02057525020679682</v>
       </c>
       <c r="C18" t="n">
         <v>0.0202065749121747</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0003662502432361589</v>
+        <v>-0.0003686752946221172</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01851779759522604</v>
+        <v>0.01851997045849977</v>
       </c>
       <c r="C19" t="n">
         <v>0.01993442102545657</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001416623430230534</v>
+        <v>0.001414450566956806</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01975021015619338</v>
+        <v>0.01975256765817902</v>
       </c>
       <c r="C20" t="n">
         <v>0.01990505811355953</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001548479573661478</v>
+        <v>0.0001524904553805058</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01740793083863845</v>
+        <v>0.01741000661931148</v>
       </c>
       <c r="C22" t="n">
         <v>0.01980031268585608</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002392381847217635</v>
+        <v>0.002390306066544605</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01815576828261277</v>
+        <v>0.01815792251087284</v>
       </c>
       <c r="C23" t="n">
         <v>0.0197103613307537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001554593048140925</v>
+        <v>0.001552438819880857</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01983747521820267</v>
+        <v>0.01983980148170293</v>
       </c>
       <c r="C25" t="n">
         <v>0.0194897794329492</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0003476957852534754</v>
+        <v>-0.0003500220487537321</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01798560153561558</v>
+        <v>0.01798772420660111</v>
       </c>
       <c r="C27" t="n">
         <v>0.01921840557318726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001232804037571675</v>
+        <v>0.001230681366586141</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01786390398848844</v>
+        <v>0.01786601233679908</v>
       </c>
       <c r="C29" t="n">
         <v>0.01903155946513137</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00116765547664293</v>
+        <v>0.001165547128332285</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01718872966309128</v>
+        <v>0.01719074995253342</v>
       </c>
       <c r="C30" t="n">
         <v>0.01897350303972862</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001784773376637339</v>
+        <v>0.001782753087195194</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01956275569698162</v>
+        <v>0.01956506468115778</v>
       </c>
       <c r="C31" t="n">
         <v>0.01891773222662478</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0006450234703568314</v>
+        <v>-0.0006473324545329916</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01721259641648108</v>
+        <v>0.01721462292231157</v>
       </c>
       <c r="C32" t="n">
         <v>0.01886567662347498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001653080206993902</v>
+        <v>0.001651053701163415</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.017569274427049</v>
+        <v>0.01757134986391922</v>
       </c>
       <c r="C35" t="n">
         <v>0.01815354268551151</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0005842682584625142</v>
+        <v>0.0005821928215922964</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01938156856952759</v>
+        <v>0.01938391237486309</v>
       </c>
       <c r="C36" t="n">
         <v>0.01799193655707208</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001389632012455511</v>
+        <v>-0.001391975817791009</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01761073810560077</v>
+        <v>0.01761284193061469</v>
       </c>
       <c r="C40" t="n">
         <v>0.01749354386356879</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0001171942420319719</v>
+        <v>-0.0001192980670459004</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7083,13 +7083,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01807448992651538</v>
+        <v>0.01807662222076964</v>
       </c>
       <c r="C41" t="n">
         <v>0.01731852030888528</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.000755969617630102</v>
+        <v>-0.0007581019118843603</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01748779127996304</v>
+        <v>0.01748985078744341</v>
       </c>
       <c r="C42" t="n">
         <v>0.01727487088451748</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.000212920395445567</v>
+        <v>-0.0002149799029259325</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01908101356199794</v>
+        <v>0.01908327047681023</v>
       </c>
       <c r="C43" t="n">
         <v>0.01726114918780488</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.001819864374193063</v>
+        <v>-0.001822121289005354</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7251,13 +7251,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01878650844796762</v>
+        <v>0.01878875251589679</v>
       </c>
       <c r="C49" t="n">
         <v>0.0166614789297515</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002125029518216123</v>
+        <v>-0.002127273586145294</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02099148913238223</v>
+        <v>0.02099398084322647</v>
       </c>
       <c r="C50" t="n">
         <v>0.01665641139858615</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.004335077733796086</v>
+        <v>-0.004337569444640327</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0117974557889037</v>
+        <v>0.01179881966923674</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0117974557889037</v>
+        <v>-0.01179881966923674</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01474229378199243</v>
+        <v>0.01474401624233916</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01474229378199243</v>
+        <v>-0.01474401624233916</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01859598890245817</v>
+        <v>0.01859822986559722</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01859598890245817</v>
+        <v>-0.01859822986559722</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02368804522394918</v>
+        <v>0.02369082833402991</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02368804522394918</v>
+        <v>-0.02369082833402991</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01768425144688783</v>
+        <v>0.01768635046934919</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01768425144688783</v>
+        <v>-0.01768635046934919</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01554651332807017</v>
+        <v>0.01554830913023029</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01554651332807017</v>
+        <v>-0.01554830913023029</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01965981443980296</v>
+        <v>0.01966216282503909</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01965981443980296</v>
+        <v>-0.01966216282503909</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01760659100826772</v>
+        <v>0.01760866426815464</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01760659100826772</v>
+        <v>-0.01760866426815464</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02780027878169743</v>
+        <v>0.027803664627919</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02780027878169743</v>
+        <v>-0.027803664627919</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02582670041015156</v>
+        <v>0.02571147647686382</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02582670041015156</v>
+        <v>-0.02571147647686382</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.014457273955713</v>
+        <v>0.01445898073956373</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.014457273955713</v>
+        <v>-0.01445898073956373</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02195729029649735</v>
+        <v>0.02195987795627728</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02195729029649735</v>
+        <v>-0.02195987795627728</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01416168068725485</v>
+        <v>0.01416337053294126</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01416168068725485</v>
+        <v>-0.01416337053294126</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02985626357313125</v>
+        <v>0.02985977308052158</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02985626357313125</v>
+        <v>-0.02985977308052158</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01691047986206363</v>
+        <v>0.01691246259155788</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01691047986206363</v>
+        <v>-0.01691246259155788</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
